--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-practitioner.xlsx
@@ -1221,7 +1221,7 @@
 麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。  
 ( 頭に1をつけて末尾3桁で表現する。これは北海道などの場合、都道府県番号は01になるが、OIDでは先頭が0は許可されていないため、頭に1をつけて3桁で表現する)  
 つまり麻薬施用者免許番号を発行した都道府県ごとにsystemも異なる値となる。  
-医籍登録番号のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.31 を使用する。</t>
+医籍登録番号のsystemはFixed Valueの http://jpfhir.jp/fhir/core/mhlw/IdSystem/medicalRegistrationNumber を使用する。</t>
   </si>
   <si>
     <t xml:space="preserve">value:code}
@@ -1273,7 +1273,7 @@
     <t>【JP Core仕様】identifierには資格番号を入力する。  
 Codeは、v2 table 0360が例としてのっている。0360は、USER-DEFINED TABLES であるため、適切なCodeがなければ追加できる。  
 Periodにはその資格の開始日・終了日を入力する。（例：麻薬資格者の有効期限等の格納）  
-医籍登録番号　Practitioner.qualification.identifier　urn:oid:1.2.392.100495.20.3.31  
+医籍登録番号　Practitioner.qualification.identifier　http://jpfhir.jp/fhir/core/mhlw/IdSystem/medicalRegistrationNumber  
 麻薬施用者番号　Practitioner.qualification.identifier　urn:oid:1.2.392.100495.20.3.32.都道府県OID番号  
 　　（都道府県OID番号は、都道府県番号2桁の先頭に１をつけた3桁の番号）</t>
   </si>
@@ -1695,7 +1695,7 @@
     <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.3.31</t>
+    <t>http://jpfhir.jp/fhir/core/mhlw/IdSystem/medicalRegistrationNumber</t>
   </si>
   <si>
     <t>Practitioner.qualification:medicalRegistrationNumber.identifier.value</t>
